--- a/UEFA.xlsx
+++ b/UEFA.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Python\Praca inz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFFE56C6-E1C3-433E-B0EF-4128DA63B638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB313143-EFB1-418D-B6D6-25796C36CC9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="58">
   <si>
     <t>country</t>
   </si>
@@ -556,9 +556,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1368"/>
+  <dimension ref="A1:C1378"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A1358" workbookViewId="0">
+      <selection activeCell="B1378" sqref="B1378"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -15615,7 +15617,118 @@
         <v>2022</v>
       </c>
     </row>
+    <row r="1369" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1369" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1369">
+        <v>109.57</v>
+      </c>
+      <c r="C1369">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1370" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1370">
+        <v>92.998000000000005</v>
+      </c>
+      <c r="C1370">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1371" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1371">
+        <v>82.480999999999995</v>
+      </c>
+      <c r="C1371">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1372" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1372">
+        <v>81.926000000000002</v>
+      </c>
+      <c r="C1372">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1373" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1373">
+        <v>61.164000000000001</v>
+      </c>
+      <c r="C1373">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1374" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1374">
+        <v>59.9</v>
+      </c>
+      <c r="C1374">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1375" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1375">
+        <v>56.216000000000001</v>
+      </c>
+      <c r="C1375">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1376" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1376">
+        <v>42.2</v>
+      </c>
+      <c r="C1376">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1377" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1377">
+        <v>36.4</v>
+      </c>
+      <c r="C1377">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1378" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1378">
+        <v>34</v>
+      </c>
+      <c r="C1378">
+        <v>2023</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>